--- a/ข้อมูลพร้อมDBD_บริษัท_บจก_20251110_213224.xlsx
+++ b/ข้อมูลพร้อมDBD_บริษัท_บจก_20251110_213224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6becf00b5c44c692/เอกสาร/GitHub/Bank_to_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2AE5381F-DE80-41E1-A12E-064A0E129C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F94729F7-F776-45FF-9014-327763606C5B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2AE5381F-DE80-41E1-A12E-064A0E129C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4736FD04-AAC8-49E0-8DAB-5B0076961B03}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ข้อมูลพร้อม DBD" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10934" uniqueCount="4173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10934" uniqueCount="4172">
   <si>
     <t>วันที่</t>
   </si>
@@ -12543,9 +12543,6 @@
   </si>
   <si>
     <t>TOYOTA BUZZ</t>
-  </si>
-  <si>
-    <t>ภาษีหัก ณ ที่จ่าย</t>
   </si>
   <si>
     <t>หัก ณ ที่จ่าย</t>
@@ -12671,6 +12668,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12960,8 +12961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13109,7 +13110,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -13159,7 +13160,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -13306,7 +13307,7 @@
         <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G7" t="s">
         <v>67</v>
@@ -13353,7 +13354,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -13400,7 +13401,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -13494,7 +13495,7 @@
         <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
@@ -13591,7 +13592,7 @@
         <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G13" t="s">
         <v>118</v>
@@ -13638,7 +13639,7 @@
         <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G14" t="s">
         <v>127</v>
@@ -13685,7 +13686,7 @@
         <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G15" t="s">
         <v>136</v>
@@ -13735,7 +13736,7 @@
         <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G16" t="s">
         <v>145</v>
@@ -13782,7 +13783,7 @@
         <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G17" t="s">
         <v>106</v>
@@ -13832,7 +13833,7 @@
         <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G18" t="s">
         <v>155</v>
@@ -13929,7 +13930,7 @@
         <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G20" t="s">
         <v>97</v>
@@ -13976,7 +13977,7 @@
         <v>175</v>
       </c>
       <c r="F21" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G21" t="s">
         <v>176</v>
@@ -14046,7 +14047,7 @@
         <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G23" t="s">
         <v>184</v>
@@ -14360,7 +14361,7 @@
         <v>238</v>
       </c>
       <c r="F30" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G30" t="s">
         <v>184</v>
@@ -14407,7 +14408,7 @@
         <v>240</v>
       </c>
       <c r="F31" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G31" t="s">
         <v>241</v>
@@ -14442,7 +14443,7 @@
         <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G32" t="s">
         <v>245</v>
@@ -14489,28 +14490,28 @@
         <v>53500</v>
       </c>
       <c r="E33" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="F33" t="s">
         <v>4156</v>
       </c>
       <c r="G33" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="J33" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="K33" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="L33" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="O33" t="s">
         <v>1704</v>
@@ -14586,7 +14587,7 @@
         <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G35" t="s">
         <v>261</v>
@@ -14721,7 +14722,7 @@
         <v>281</v>
       </c>
       <c r="F38" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G38" t="s">
         <v>282</v>
@@ -14771,7 +14772,7 @@
         <v>291</v>
       </c>
       <c r="F39" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G39" t="s">
         <v>292</v>
@@ -14903,7 +14904,7 @@
         <v>312</v>
       </c>
       <c r="F42" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G42" t="s">
         <v>313</v>
@@ -15082,7 +15083,7 @@
         <v>340</v>
       </c>
       <c r="F46" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G46" t="s">
         <v>341</v>
@@ -15287,7 +15288,7 @@
         <v>369</v>
       </c>
       <c r="F51" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G51" t="s">
         <v>370</v>
@@ -15609,7 +15610,7 @@
         <v>410</v>
       </c>
       <c r="F59" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G59" t="s">
         <v>282</v>
@@ -16126,7 +16127,7 @@
         <v>483</v>
       </c>
       <c r="F70" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G70" t="s">
         <v>484</v>
@@ -16537,7 +16538,7 @@
         <v>537</v>
       </c>
       <c r="F79" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G79" t="s">
         <v>184</v>
@@ -16701,7 +16702,7 @@
         <v>553</v>
       </c>
       <c r="F83" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G83" t="s">
         <v>176</v>
@@ -16915,7 +16916,7 @@
         <v>587</v>
       </c>
       <c r="F88" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G88" t="s">
         <v>588</v>
@@ -17569,7 +17570,7 @@
         <v>685</v>
       </c>
       <c r="F103" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G103" t="s">
         <v>686</v>
@@ -17689,7 +17690,7 @@
         <v>703</v>
       </c>
       <c r="F106" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G106" t="s">
         <v>127</v>
@@ -18103,7 +18104,7 @@
         <v>769</v>
       </c>
       <c r="F115" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G115" t="s">
         <v>770</v>
@@ -18347,7 +18348,7 @@
         <v>807</v>
       </c>
       <c r="F120" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G120" t="s">
         <v>808</v>
@@ -18479,7 +18480,7 @@
         <v>826</v>
       </c>
       <c r="F123" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G123" t="s">
         <v>827</v>
@@ -18802,7 +18803,7 @@
         <v>877</v>
       </c>
       <c r="F130" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G130" t="s">
         <v>245</v>
@@ -18852,7 +18853,7 @@
         <v>879</v>
       </c>
       <c r="F131" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G131" t="s">
         <v>880</v>
@@ -19007,7 +19008,7 @@
         <v>899</v>
       </c>
       <c r="F135" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G135" t="s">
         <v>900</v>
@@ -19177,7 +19178,7 @@
         <v>923</v>
       </c>
       <c r="F139" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G139" t="s">
         <v>924</v>
@@ -19224,7 +19225,7 @@
         <v>930</v>
       </c>
       <c r="F140" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G140" t="s">
         <v>931</v>
@@ -19356,7 +19357,7 @@
         <v>942</v>
       </c>
       <c r="F143" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G143" t="s">
         <v>943</v>
@@ -19679,7 +19680,7 @@
         <v>995</v>
       </c>
       <c r="F150" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G150" t="s">
         <v>996</v>
@@ -19814,7 +19815,7 @@
         <v>1010</v>
       </c>
       <c r="F153" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G153" t="s">
         <v>1011</v>
@@ -20093,7 +20094,7 @@
         <v>1046</v>
       </c>
       <c r="F159" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G159" t="s">
         <v>370</v>
@@ -20128,7 +20129,7 @@
         <v>1048</v>
       </c>
       <c r="F160" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G160" t="s">
         <v>1049</v>
@@ -20163,7 +20164,7 @@
         <v>1052</v>
       </c>
       <c r="F161" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G161" t="s">
         <v>1053</v>
@@ -20213,7 +20214,7 @@
         <v>1055</v>
       </c>
       <c r="F162" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G162" t="s">
         <v>1056</v>
@@ -20260,7 +20261,7 @@
         <v>1062</v>
       </c>
       <c r="F163" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G163" t="s">
         <v>313</v>
@@ -20360,7 +20361,7 @@
         <v>1074</v>
       </c>
       <c r="F165" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G165" t="s">
         <v>272</v>
@@ -20557,7 +20558,7 @@
         <v>1089</v>
       </c>
       <c r="F169" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G169" t="s">
         <v>1090</v>
@@ -20607,7 +20608,7 @@
         <v>1097</v>
       </c>
       <c r="F170" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G170" t="s">
         <v>370</v>
@@ -20677,7 +20678,7 @@
         <v>1103</v>
       </c>
       <c r="F172" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G172" t="s">
         <v>292</v>
@@ -21073,7 +21074,7 @@
         <v>1142</v>
       </c>
       <c r="F181" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G181" t="s">
         <v>106</v>
@@ -21681,7 +21682,7 @@
         <v>1212</v>
       </c>
       <c r="F194" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G194" t="s">
         <v>192</v>
@@ -21731,7 +21732,7 @@
         <v>1214</v>
       </c>
       <c r="F195" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G195" t="s">
         <v>1215</v>
@@ -21816,7 +21817,7 @@
         <v>1219</v>
       </c>
       <c r="F197" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G197" t="s">
         <v>1220</v>
@@ -21948,7 +21949,7 @@
         <v>1238</v>
       </c>
       <c r="F200" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G200" t="s">
         <v>1239</v>
@@ -22045,7 +22046,7 @@
         <v>1256</v>
       </c>
       <c r="F202" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G202" t="s">
         <v>1257</v>
@@ -22127,7 +22128,7 @@
         <v>1261</v>
       </c>
       <c r="F204" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G204" t="s">
         <v>1262</v>
@@ -22247,7 +22248,7 @@
         <v>1277</v>
       </c>
       <c r="F207" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G207" t="s">
         <v>184</v>
@@ -22341,7 +22342,7 @@
         <v>1284</v>
       </c>
       <c r="F209" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G209" t="s">
         <v>370</v>
@@ -22376,7 +22377,7 @@
         <v>1286</v>
       </c>
       <c r="F210" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G210" t="s">
         <v>292</v>
@@ -22573,7 +22574,7 @@
         <v>1308</v>
       </c>
       <c r="F214" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G214" t="s">
         <v>686</v>
@@ -22673,7 +22674,7 @@
         <v>1312</v>
       </c>
       <c r="F216" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G216" t="s">
         <v>1313</v>
@@ -23078,7 +23079,7 @@
         <v>1358</v>
       </c>
       <c r="F225" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G225" t="s">
         <v>1359</v>
@@ -23210,7 +23211,7 @@
         <v>1372</v>
       </c>
       <c r="F228" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G228" t="s">
         <v>86</v>
@@ -23257,7 +23258,7 @@
         <v>1373</v>
       </c>
       <c r="F229" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G229" t="s">
         <v>1374</v>
@@ -23327,7 +23328,7 @@
         <v>1381</v>
       </c>
       <c r="F231" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G231" t="s">
         <v>1382</v>
@@ -23541,7 +23542,7 @@
         <v>1408</v>
       </c>
       <c r="F236" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G236" t="s">
         <v>1409</v>
@@ -23691,7 +23692,7 @@
         <v>1427</v>
       </c>
       <c r="F239" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G239" t="s">
         <v>1428</v>
@@ -23776,7 +23777,7 @@
         <v>1439</v>
       </c>
       <c r="F241" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G241" t="s">
         <v>1440</v>
@@ -24237,7 +24238,7 @@
         <v>1478</v>
       </c>
       <c r="F251" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G251" t="s">
         <v>1479</v>
@@ -24445,7 +24446,7 @@
         <v>1503</v>
       </c>
       <c r="F256" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G256" t="s">
         <v>827</v>
@@ -25234,7 +25235,7 @@
         <v>1591</v>
       </c>
       <c r="F274" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G274" t="s">
         <v>1592</v>
@@ -25604,7 +25605,7 @@
         <v>1629</v>
       </c>
       <c r="F282" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G282" t="s">
         <v>1630</v>
@@ -25651,7 +25652,7 @@
         <v>1638</v>
       </c>
       <c r="F283" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G283" t="s">
         <v>1220</v>
@@ -25733,7 +25734,7 @@
         <v>1647</v>
       </c>
       <c r="F285" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G285" t="s">
         <v>1648</v>
@@ -25927,7 +25928,7 @@
         <v>1678</v>
       </c>
       <c r="F289" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G289" t="s">
         <v>1679</v>
@@ -25977,7 +25978,7 @@
         <v>1686</v>
       </c>
       <c r="F290" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G290" t="s">
         <v>1687</v>
@@ -26338,7 +26339,7 @@
         <v>1729</v>
       </c>
       <c r="F298" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G298" t="s">
         <v>1215</v>
@@ -26543,7 +26544,7 @@
         <v>1753</v>
       </c>
       <c r="F303" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G303" t="s">
         <v>1754</v>
@@ -26895,7 +26896,7 @@
         <v>1792</v>
       </c>
       <c r="F311" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G311" t="s">
         <v>1793</v>
@@ -27262,7 +27263,7 @@
         <v>1845</v>
       </c>
       <c r="F319" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G319" t="s">
         <v>1846</v>
@@ -27394,7 +27395,7 @@
         <v>1866</v>
       </c>
       <c r="F322" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G322" t="s">
         <v>1140</v>
@@ -27608,7 +27609,7 @@
         <v>1888</v>
       </c>
       <c r="F327" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G327" t="s">
         <v>1220</v>
@@ -27834,7 +27835,7 @@
         <v>1914</v>
       </c>
       <c r="F332" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G332" t="s">
         <v>1915</v>
@@ -27928,7 +27929,7 @@
         <v>1928</v>
       </c>
       <c r="F334" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G334" t="s">
         <v>1929</v>
@@ -27978,7 +27979,7 @@
         <v>1934</v>
       </c>
       <c r="F335" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G335" t="s">
         <v>1935</v>
@@ -28028,7 +28029,7 @@
         <v>1941</v>
       </c>
       <c r="F336" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G336" t="s">
         <v>192</v>
@@ -28339,7 +28340,7 @@
         <v>1967</v>
       </c>
       <c r="F343" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G343" t="s">
         <v>1968</v>
@@ -28386,7 +28387,7 @@
         <v>1974</v>
       </c>
       <c r="F344" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G344" t="s">
         <v>1975</v>
@@ -28627,7 +28628,7 @@
         <v>2012</v>
       </c>
       <c r="F349" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G349" t="s">
         <v>2013</v>
@@ -29081,7 +29082,7 @@
         <v>2055</v>
       </c>
       <c r="F360" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G360" t="s">
         <v>2056</v>
@@ -29313,7 +29314,7 @@
         <v>2073</v>
       </c>
       <c r="F365" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G365" t="s">
         <v>2074</v>
@@ -29363,7 +29364,7 @@
         <v>2081</v>
       </c>
       <c r="F366" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G366" t="s">
         <v>2082</v>
@@ -29562,7 +29563,7 @@
         <v>2097</v>
       </c>
       <c r="F371" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G371" t="s">
         <v>2098</v>
@@ -29644,7 +29645,7 @@
         <v>2108</v>
       </c>
       <c r="F373" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G373" t="s">
         <v>2109</v>
@@ -29679,7 +29680,7 @@
         <v>2112</v>
       </c>
       <c r="F374" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G374" t="s">
         <v>1090</v>
@@ -30559,7 +30560,7 @@
         <v>2185</v>
       </c>
       <c r="F394" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G394" t="s">
         <v>943</v>
@@ -30612,7 +30613,7 @@
         <v>2186</v>
       </c>
       <c r="F395" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G395" t="s">
         <v>2187</v>
@@ -31028,7 +31029,7 @@
         <v>2240</v>
       </c>
       <c r="F405" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G405" t="s">
         <v>176</v>
@@ -31063,7 +31064,7 @@
         <v>2241</v>
       </c>
       <c r="F406" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G406" t="s">
         <v>176</v>
@@ -31098,7 +31099,7 @@
         <v>2243</v>
       </c>
       <c r="F407" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G407" t="s">
         <v>176</v>
@@ -31253,7 +31254,7 @@
         <v>2252</v>
       </c>
       <c r="F411" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G411" t="s">
         <v>2253</v>
@@ -31300,7 +31301,7 @@
         <v>2259</v>
       </c>
       <c r="F412" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G412" t="s">
         <v>2260</v>
@@ -31335,7 +31336,7 @@
         <v>2263</v>
       </c>
       <c r="F413" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G413" t="s">
         <v>313</v>
@@ -31435,7 +31436,7 @@
         <v>2266</v>
       </c>
       <c r="F415" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G415" t="s">
         <v>2267</v>
@@ -31590,7 +31591,7 @@
         <v>2279</v>
       </c>
       <c r="F419" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G419" t="s">
         <v>1508</v>
@@ -31901,7 +31902,7 @@
         <v>2305</v>
       </c>
       <c r="F426" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G426" t="s">
         <v>2306</v>
@@ -32150,7 +32151,7 @@
         <v>2332</v>
       </c>
       <c r="F432" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G432" t="s">
         <v>1968</v>
@@ -32513,7 +32514,7 @@
         <v>2369</v>
       </c>
       <c r="F441" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G441" t="s">
         <v>2370</v>
@@ -33484,7 +33485,7 @@
         <v>2488</v>
       </c>
       <c r="F463" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G463" t="s">
         <v>2489</v>
@@ -34391,7 +34392,7 @@
         <v>2610</v>
       </c>
       <c r="F483" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="G483" t="s">
         <v>2611</v>
@@ -34426,7 +34427,7 @@
         <v>2613</v>
       </c>
       <c r="F484" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="G484" t="s">
         <v>2611</v>
@@ -34596,7 +34597,7 @@
         <v>2636</v>
       </c>
       <c r="F488" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G488" t="s">
         <v>2637</v>
@@ -34631,7 +34632,7 @@
         <v>2640</v>
       </c>
       <c r="F489" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G489" t="s">
         <v>2641</v>
@@ -34845,7 +34846,7 @@
         <v>2663</v>
       </c>
       <c r="F494" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G494" t="s">
         <v>370</v>
@@ -34930,7 +34931,7 @@
         <v>2672</v>
       </c>
       <c r="F496" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G496" t="s">
         <v>2673</v>
@@ -35024,7 +35025,7 @@
         <v>2685</v>
       </c>
       <c r="F498" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G498" t="s">
         <v>2686</v>
@@ -35071,7 +35072,7 @@
         <v>2691</v>
       </c>
       <c r="F499" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G499" t="s">
         <v>2692</v>
@@ -35106,7 +35107,7 @@
         <v>2694</v>
       </c>
       <c r="F500" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G500" t="s">
         <v>2692</v>
@@ -35191,7 +35192,7 @@
         <v>2705</v>
       </c>
       <c r="F502" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G502" t="s">
         <v>2686</v>
@@ -35420,7 +35421,7 @@
         <v>2728</v>
       </c>
       <c r="F507" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G507" t="s">
         <v>313</v>
@@ -35757,7 +35758,7 @@
         <v>2770</v>
       </c>
       <c r="F515" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G515" t="s">
         <v>2771</v>
@@ -36144,7 +36145,7 @@
         <v>2818</v>
       </c>
       <c r="F524" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G524" t="s">
         <v>370</v>
@@ -36179,7 +36180,7 @@
         <v>2819</v>
       </c>
       <c r="F525" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G525" t="s">
         <v>2771</v>
@@ -36346,7 +36347,7 @@
         <v>2835</v>
       </c>
       <c r="F529" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G529" t="s">
         <v>1257</v>
@@ -36431,7 +36432,7 @@
         <v>2844</v>
       </c>
       <c r="F531" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G531" t="s">
         <v>2260</v>
@@ -36613,7 +36614,7 @@
         <v>2861</v>
       </c>
       <c r="F535" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G535" t="s">
         <v>2260</v>
@@ -36962,7 +36963,7 @@
         <v>2882</v>
       </c>
       <c r="F543" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G543" t="s">
         <v>2883</v>
@@ -37466,7 +37467,7 @@
         <v>2945</v>
       </c>
       <c r="F555" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G555" t="s">
         <v>900</v>
@@ -37686,7 +37687,7 @@
         <v>2959</v>
       </c>
       <c r="F560" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G560" t="s">
         <v>77</v>
@@ -37897,7 +37898,7 @@
         <v>2970</v>
       </c>
       <c r="F565" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G565" t="s">
         <v>2971</v>
@@ -38006,7 +38007,7 @@
         <v>1221</v>
       </c>
       <c r="J567" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="K567" t="s">
         <v>1221</v>
@@ -38129,7 +38130,7 @@
         <v>2990</v>
       </c>
       <c r="F570" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G570" t="s">
         <v>2991</v>
@@ -38788,7 +38789,7 @@
         <v>3044</v>
       </c>
       <c r="F586" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G586" t="s">
         <v>192</v>
@@ -38838,7 +38839,7 @@
         <v>3046</v>
       </c>
       <c r="F587" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G587" t="s">
         <v>869</v>
@@ -38923,7 +38924,7 @@
         <v>3052</v>
       </c>
       <c r="F589" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G589" t="s">
         <v>3053</v>
@@ -39043,7 +39044,7 @@
         <v>3057</v>
       </c>
       <c r="F592" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G592" t="s">
         <v>686</v>
@@ -39143,7 +39144,7 @@
         <v>3064</v>
       </c>
       <c r="F594" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G594" t="s">
         <v>3065</v>
@@ -39193,7 +39194,7 @@
         <v>3071</v>
       </c>
       <c r="F595" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G595" t="s">
         <v>3072</v>
@@ -39263,7 +39264,7 @@
         <v>3078</v>
       </c>
       <c r="F597" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G597" t="s">
         <v>3079</v>
@@ -39357,7 +39358,7 @@
         <v>3089</v>
       </c>
       <c r="F599" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G599" t="s">
         <v>3090</v>
@@ -39392,7 +39393,7 @@
         <v>3092</v>
       </c>
       <c r="F600" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G600" t="s">
         <v>3093</v>
@@ -39586,7 +39587,7 @@
         <v>3115</v>
       </c>
       <c r="F604" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G604" t="s">
         <v>3116</v>
@@ -39686,7 +39687,7 @@
         <v>3123</v>
       </c>
       <c r="F606" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G606" t="s">
         <v>3124</v>
@@ -39880,7 +39881,7 @@
         <v>3144</v>
       </c>
       <c r="F610" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G610" t="s">
         <v>282</v>
@@ -39930,7 +39931,7 @@
         <v>3147</v>
       </c>
       <c r="F611" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G611" t="s">
         <v>686</v>
@@ -39980,7 +39981,7 @@
         <v>3148</v>
       </c>
       <c r="F612" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G612" t="s">
         <v>686</v>
@@ -40165,7 +40166,7 @@
         <v>3174</v>
       </c>
       <c r="F616" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G616" t="s">
         <v>757</v>
@@ -40200,7 +40201,7 @@
         <v>3176</v>
       </c>
       <c r="F617" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G617" t="s">
         <v>1049</v>
@@ -40405,7 +40406,7 @@
         <v>3190</v>
       </c>
       <c r="F622" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G622" t="s">
         <v>3191</v>
@@ -40440,7 +40441,7 @@
         <v>3193</v>
       </c>
       <c r="F623" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G623" t="s">
         <v>3191</v>
@@ -40475,7 +40476,7 @@
         <v>3194</v>
       </c>
       <c r="F624" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G624" t="s">
         <v>3191</v>
@@ -40510,7 +40511,7 @@
         <v>3196</v>
       </c>
       <c r="F625" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G625" t="s">
         <v>2597</v>
@@ -40557,7 +40558,7 @@
         <v>3197</v>
       </c>
       <c r="F626" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G626" t="s">
         <v>2597</v>
@@ -40654,7 +40655,7 @@
         <v>3201</v>
       </c>
       <c r="F628" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G628" t="s">
         <v>2109</v>
@@ -40739,7 +40740,7 @@
         <v>3209</v>
       </c>
       <c r="F630" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G630" t="s">
         <v>3210</v>
@@ -40929,7 +40930,7 @@
         <v>3222</v>
       </c>
       <c r="F635" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G635" t="s">
         <v>3223</v>
@@ -40979,7 +40980,7 @@
         <v>3230</v>
       </c>
       <c r="F636" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G636" t="s">
         <v>3223</v>
@@ -41173,7 +41174,7 @@
         <v>3241</v>
       </c>
       <c r="F640" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G640" t="s">
         <v>3242</v>
@@ -41258,7 +41259,7 @@
         <v>3246</v>
       </c>
       <c r="F642" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G642" t="s">
         <v>3247</v>
@@ -41308,7 +41309,7 @@
         <v>3252</v>
       </c>
       <c r="F643" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G643" t="s">
         <v>3253</v>
@@ -41343,7 +41344,7 @@
         <v>3255</v>
       </c>
       <c r="F644" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G644" t="s">
         <v>3256</v>
@@ -41425,7 +41426,7 @@
         <v>3263</v>
       </c>
       <c r="F646" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G646" t="s">
         <v>3264</v>
@@ -41460,7 +41461,7 @@
         <v>3266</v>
       </c>
       <c r="F647" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G647" t="s">
         <v>3267</v>
@@ -41507,7 +41508,7 @@
         <v>3272</v>
       </c>
       <c r="F648" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G648" t="s">
         <v>3273</v>
@@ -41554,7 +41555,7 @@
         <v>3278</v>
       </c>
       <c r="F649" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G649" t="s">
         <v>3279</v>
@@ -41589,7 +41590,7 @@
         <v>3281</v>
       </c>
       <c r="F650" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G650" t="s">
         <v>3282</v>
@@ -41624,7 +41625,7 @@
         <v>3284</v>
       </c>
       <c r="F651" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G651" t="s">
         <v>3285</v>
@@ -41659,7 +41660,7 @@
         <v>3288</v>
       </c>
       <c r="F652" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G652" t="s">
         <v>3289</v>
@@ -41709,7 +41710,7 @@
         <v>3293</v>
       </c>
       <c r="F653" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G653" t="s">
         <v>686</v>
@@ -41759,7 +41760,7 @@
         <v>3295</v>
       </c>
       <c r="F654" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G654" t="s">
         <v>1448</v>
@@ -41809,7 +41810,7 @@
         <v>3297</v>
       </c>
       <c r="F655" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G655" t="s">
         <v>1448</v>
@@ -41859,7 +41860,7 @@
         <v>3299</v>
       </c>
       <c r="F656" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G656" t="s">
         <v>1448</v>
@@ -41956,7 +41957,7 @@
         <v>3309</v>
       </c>
       <c r="F658" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G658" t="s">
         <v>3310</v>
@@ -42073,7 +42074,7 @@
         <v>3322</v>
       </c>
       <c r="F661" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G661" t="s">
         <v>3323</v>
@@ -42120,7 +42121,7 @@
         <v>3329</v>
       </c>
       <c r="F662" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G662" t="s">
         <v>3330</v>
@@ -42155,7 +42156,7 @@
         <v>3332</v>
       </c>
       <c r="F663" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G663" t="s">
         <v>3267</v>
@@ -42237,7 +42238,7 @@
         <v>3334</v>
       </c>
       <c r="F665" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G665" t="s">
         <v>1220</v>
@@ -42536,7 +42537,7 @@
         <v>3364</v>
       </c>
       <c r="F672" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G672" t="s">
         <v>3365</v>
@@ -42606,7 +42607,7 @@
         <v>3373</v>
       </c>
       <c r="F674" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G674" t="s">
         <v>3374</v>
@@ -42706,7 +42707,7 @@
         <v>3381</v>
       </c>
       <c r="F676" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G676" t="s">
         <v>3382</v>
@@ -42756,7 +42757,7 @@
         <v>3389</v>
       </c>
       <c r="F677" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G677" t="s">
         <v>3390</v>
@@ -42938,7 +42939,7 @@
         <v>3402</v>
       </c>
       <c r="F681" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G681" t="s">
         <v>3403</v>
@@ -43114,7 +43115,7 @@
         <v>3423</v>
       </c>
       <c r="F685" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G685" t="s">
         <v>3424</v>
@@ -43149,7 +43150,7 @@
         <v>3427</v>
       </c>
       <c r="F686" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G686" t="s">
         <v>3428</v>
@@ -43231,7 +43232,7 @@
         <v>3435</v>
       </c>
       <c r="F688" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G688" t="s">
         <v>3436</v>
@@ -43328,7 +43329,7 @@
         <v>3449</v>
       </c>
       <c r="F690" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G690" t="s">
         <v>106</v>
@@ -43525,7 +43526,7 @@
         <v>3461</v>
       </c>
       <c r="F694" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G694" t="s">
         <v>3136</v>
@@ -44233,7 +44234,7 @@
         <v>3548</v>
       </c>
       <c r="F709" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G709" t="s">
         <v>3549</v>
@@ -44567,7 +44568,7 @@
         <v>3587</v>
       </c>
       <c r="F717" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G717" t="s">
         <v>3588</v>
@@ -44931,7 +44932,7 @@
         <v>3631</v>
       </c>
       <c r="F725" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G725" t="s">
         <v>3632</v>
@@ -45148,7 +45149,7 @@
         <v>3659</v>
       </c>
       <c r="F730" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G730" t="s">
         <v>1508</v>
@@ -45295,7 +45296,7 @@
         <v>3662</v>
       </c>
       <c r="F733" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G733" t="s">
         <v>3663</v>
@@ -45392,7 +45393,7 @@
         <v>3676</v>
       </c>
       <c r="F735" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G735" t="s">
         <v>176</v>
@@ -45427,7 +45428,7 @@
         <v>3677</v>
       </c>
       <c r="F736" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G736" t="s">
         <v>176</v>
@@ -45462,7 +45463,7 @@
         <v>3678</v>
       </c>
       <c r="F737" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G737" t="s">
         <v>176</v>
@@ -45497,7 +45498,7 @@
         <v>3680</v>
       </c>
       <c r="F738" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G738" t="s">
         <v>3681</v>
@@ -45547,7 +45548,7 @@
         <v>3688</v>
       </c>
       <c r="F739" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G739" t="s">
         <v>3689</v>
@@ -45632,7 +45633,7 @@
         <v>3696</v>
       </c>
       <c r="F741" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G741" t="s">
         <v>3310</v>
@@ -45819,7 +45820,7 @@
         <v>3713</v>
       </c>
       <c r="F746" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G746" t="s">
         <v>3714</v>
@@ -45872,7 +45873,7 @@
         <v>3721</v>
       </c>
       <c r="F747" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G747" t="s">
         <v>3722</v>
@@ -45919,7 +45920,7 @@
         <v>3728</v>
       </c>
       <c r="F748" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G748" t="s">
         <v>3090</v>
@@ -45954,7 +45955,7 @@
         <v>3729</v>
       </c>
       <c r="F749" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G749" t="s">
         <v>3730</v>
@@ -46112,7 +46113,7 @@
         <v>3739</v>
       </c>
       <c r="F753" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G753" t="s">
         <v>3310</v>
@@ -46147,7 +46148,7 @@
         <v>3741</v>
       </c>
       <c r="F754" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="G754" t="s">
         <v>2611</v>
@@ -46229,7 +46230,7 @@
         <v>3749</v>
       </c>
       <c r="F756" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G756" t="s">
         <v>2971</v>
@@ -46276,7 +46277,7 @@
         <v>3750</v>
       </c>
       <c r="F757" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G757" t="s">
         <v>2971</v>
@@ -46640,7 +46641,7 @@
         <v>3787</v>
       </c>
       <c r="F765" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G765" t="s">
         <v>3788</v>
@@ -46687,7 +46688,7 @@
         <v>3794</v>
       </c>
       <c r="F766" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G766" t="s">
         <v>3090</v>
@@ -46722,7 +46723,7 @@
         <v>3796</v>
       </c>
       <c r="F767" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G767" t="s">
         <v>1679</v>
@@ -46819,7 +46820,7 @@
         <v>3806</v>
       </c>
       <c r="F769" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G769" t="s">
         <v>3807</v>
@@ -46901,7 +46902,7 @@
         <v>3810</v>
       </c>
       <c r="F771" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G771" t="s">
         <v>3811</v>
@@ -47183,7 +47184,7 @@
         <v>3837</v>
       </c>
       <c r="F777" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G777" t="s">
         <v>3838</v>
@@ -47347,7 +47348,7 @@
         <v>3854</v>
       </c>
       <c r="F781" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G781" t="s">
         <v>3714</v>
@@ -47400,7 +47401,7 @@
         <v>3856</v>
       </c>
       <c r="F782" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G782" t="s">
         <v>3857</v>
@@ -47541,7 +47542,7 @@
         <v>3876</v>
       </c>
       <c r="F785" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G785" t="s">
         <v>3124</v>
@@ -47591,7 +47592,7 @@
         <v>3877</v>
       </c>
       <c r="F786" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G786" t="s">
         <v>3310</v>
@@ -47626,7 +47627,7 @@
         <v>3879</v>
       </c>
       <c r="F787" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G787" t="s">
         <v>3310</v>
@@ -47661,7 +47662,7 @@
         <v>3881</v>
       </c>
       <c r="F788" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G788" t="s">
         <v>3310</v>
@@ -48016,7 +48017,7 @@
         <v>3920</v>
       </c>
       <c r="F796" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G796" t="s">
         <v>3921</v>
@@ -48113,7 +48114,7 @@
         <v>3932</v>
       </c>
       <c r="F798" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G798" t="s">
         <v>1630</v>
@@ -48245,7 +48246,7 @@
         <v>3943</v>
       </c>
       <c r="F801" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G801" t="s">
         <v>3323</v>
@@ -48342,7 +48343,7 @@
         <v>3947</v>
       </c>
       <c r="F803" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G803" t="s">
         <v>3223</v>
@@ -48559,7 +48560,7 @@
         <v>3969</v>
       </c>
       <c r="F808" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G808" t="s">
         <v>1630</v>
@@ -48700,7 +48701,7 @@
         <v>3984</v>
       </c>
       <c r="F811" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G811" t="s">
         <v>3223</v>
@@ -48750,7 +48751,7 @@
         <v>3985</v>
       </c>
       <c r="F812" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G812" t="s">
         <v>2267</v>
@@ -48797,7 +48798,7 @@
         <v>3991</v>
       </c>
       <c r="F813" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G813" t="s">
         <v>3992</v>
@@ -48844,7 +48845,7 @@
         <v>4000</v>
       </c>
       <c r="F814" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G814" t="s">
         <v>4001</v>
@@ -48879,7 +48880,7 @@
         <v>4002</v>
       </c>
       <c r="F815" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="G815" t="s">
         <v>4003</v>
@@ -49046,7 +49047,7 @@
         <v>4024</v>
       </c>
       <c r="F819" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G819" t="s">
         <v>4025</v>
@@ -49081,7 +49082,7 @@
         <v>4027</v>
       </c>
       <c r="F820" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G820" t="s">
         <v>3273</v>
@@ -49128,7 +49129,7 @@
         <v>4028</v>
       </c>
       <c r="F821" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G821" t="s">
         <v>4029</v>
@@ -49401,7 +49402,7 @@
         <v>4058</v>
       </c>
       <c r="F827" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G827" t="s">
         <v>3256</v>
@@ -49448,7 +49449,7 @@
         <v>4060</v>
       </c>
       <c r="F828" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="G828" t="s">
         <v>4061</v>
@@ -49495,7 +49496,7 @@
         <v>4068</v>
       </c>
       <c r="F829" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G829" t="s">
         <v>4069</v>
@@ -50292,7 +50293,7 @@
         <v>4130</v>
       </c>
       <c r="F848" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G848" t="s">
         <v>4131</v>
@@ -50409,7 +50410,7 @@
         <v>4136</v>
       </c>
       <c r="F851" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G851" t="s">
         <v>4137</v>
@@ -50459,7 +50460,7 @@
         <v>4143</v>
       </c>
       <c r="F852" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G852" t="s">
         <v>1053</v>
@@ -50509,7 +50510,7 @@
         <v>4145</v>
       </c>
       <c r="F853" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="G853" t="s">
         <v>2679</v>
@@ -57736,7 +57737,7 @@
         <v>ภาษีปกติ</v>
       </c>
       <c r="P317" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="318" spans="3:16" x14ac:dyDescent="0.2">
